--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1173"/>
+  <dimension ref="A1:I1174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41433,6 +41433,41 @@
         <v>2931200</v>
       </c>
     </row>
+    <row r="1174">
+      <c r="A1174" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1174" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1174" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1174" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>1252600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1174"/>
+  <dimension ref="A1:I1175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41468,6 +41468,41 @@
         <v>1252600</v>
       </c>
     </row>
+    <row r="1175">
+      <c r="A1175" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1175" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1175" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1175" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>3425000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1175"/>
+  <dimension ref="A1:I1176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41503,6 +41503,41 @@
         <v>3425000</v>
       </c>
     </row>
+    <row r="1176">
+      <c r="A1176" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1176" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1176" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1176" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>1660400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1176"/>
+  <dimension ref="A1:I1177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41538,6 +41538,41 @@
         <v>1660400</v>
       </c>
     </row>
+    <row r="1177">
+      <c r="A1177" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1177" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1177" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1177" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>3700800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1177"/>
+  <dimension ref="A1:I1178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41573,6 +41573,41 @@
         <v>3700800</v>
       </c>
     </row>
+    <row r="1178">
+      <c r="A1178" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1178" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1178" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1178" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>2693700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1178"/>
+  <dimension ref="A1:I1179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41608,6 +41608,41 @@
         <v>2693700</v>
       </c>
     </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>1530500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1179"/>
+  <dimension ref="A1:I1180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41643,6 +41643,41 @@
         <v>1530500</v>
       </c>
     </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>581000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1180"/>
+  <dimension ref="A1:I1181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41678,6 +41678,41 @@
         <v>581000</v>
       </c>
     </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>360500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1181"/>
+  <dimension ref="A1:I1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41713,6 +41713,41 @@
         <v>360500</v>
       </c>
     </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>520700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1182"/>
+  <dimension ref="A1:I1183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41748,6 +41748,41 @@
         <v>520700</v>
       </c>
     </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>3091700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1183"/>
+  <dimension ref="A1:I1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41783,6 +41783,41 @@
         <v>3091700</v>
       </c>
     </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>2196400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1184"/>
+  <dimension ref="A1:I1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41818,6 +41818,41 @@
         <v>2196400</v>
       </c>
     </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>1036500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1185"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41853,6 +41853,76 @@
         <v>1036500</v>
       </c>
     </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>2831500</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>4917700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41923,6 +41923,76 @@
         <v>4917700</v>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>2969800</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>4588600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41993,6 +41993,41 @@
         <v>4588600</v>
       </c>
     </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>1986600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42028,6 +42028,41 @@
         <v>1986600</v>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>6665500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42063,6 +42063,41 @@
         <v>6665500</v>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>1515500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42098,6 +42098,41 @@
         <v>1515500</v>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>16123400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42133,6 +42133,76 @@
         <v>16123400</v>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>20560100</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>7714500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42203,6 +42203,41 @@
         <v>7714500</v>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>6010900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42238,6 +42238,41 @@
         <v>6010900</v>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>5519000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39720,11 +39720,11 @@
     </row>
     <row r="1125">
       <c r="A1125" t="n">
-        <v>1574985600</v>
+        <v>1574035200</v>
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2019-11-18</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr">
@@ -39738,10 +39738,10 @@
         </is>
       </c>
       <c r="E1125" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="F1125" t="n">
-        <v>0.195</v>
+        <v>0.2</v>
       </c>
       <c r="G1125" t="n">
         <v>0.19</v>
@@ -39750,16 +39750,16 @@
         <v>0.195</v>
       </c>
       <c r="I1125" t="n">
-        <v>1614500</v>
+        <v>551900</v>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="n">
-        <v>1575244800</v>
+        <v>1574121600</v>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-11-19</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr">
@@ -39773,28 +39773,28 @@
         </is>
       </c>
       <c r="E1126" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1126" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1126" t="n">
         <v>0.195</v>
       </c>
-      <c r="F1126" t="n">
+      <c r="H1126" t="n">
         <v>0.195</v>
       </c>
-      <c r="G1126" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H1126" t="n">
-        <v>0.19</v>
-      </c>
       <c r="I1126" t="n">
-        <v>142000</v>
+        <v>150500</v>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="n">
-        <v>1575331200</v>
+        <v>1574208000</v>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-11-20</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
@@ -39808,28 +39808,28 @@
         </is>
       </c>
       <c r="E1127" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="F1127" t="n">
         <v>0.195</v>
       </c>
       <c r="G1127" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="H1127" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="I1127" t="n">
-        <v>666000</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="n">
-        <v>1575417600</v>
+        <v>1574294400</v>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -39846,25 +39846,25 @@
         <v>0.195</v>
       </c>
       <c r="F1128" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1128" t="n">
         <v>0.195</v>
       </c>
-      <c r="G1128" t="n">
-        <v>0.19</v>
-      </c>
       <c r="H1128" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="I1128" t="n">
-        <v>653100</v>
+        <v>793100</v>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
-        <v>1575504000</v>
+        <v>1574380800</v>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-11-22</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr">
@@ -39884,22 +39884,22 @@
         <v>0.195</v>
       </c>
       <c r="G1129" t="n">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="H1129" t="n">
         <v>0.195</v>
       </c>
       <c r="I1129" t="n">
-        <v>804000</v>
+        <v>380500</v>
       </c>
     </row>
     <row r="1130">
       <c r="A1130" t="n">
-        <v>1575590400</v>
+        <v>1574640000</v>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-11-25</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr">
@@ -39913,28 +39913,28 @@
         </is>
       </c>
       <c r="E1130" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F1130" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1130" t="n">
         <v>0.195</v>
       </c>
-      <c r="G1130" t="n">
-        <v>0.19</v>
-      </c>
       <c r="H1130" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="I1130" t="n">
-        <v>213200</v>
+        <v>221300</v>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="n">
-        <v>1575849600</v>
+        <v>1574726400</v>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-11-26</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr">
@@ -39948,28 +39948,28 @@
         </is>
       </c>
       <c r="E1131" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F1131" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1131" t="n">
         <v>0.195</v>
       </c>
-      <c r="G1131" t="n">
-        <v>0.19</v>
-      </c>
       <c r="H1131" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="I1131" t="n">
-        <v>1382000</v>
+        <v>370200</v>
       </c>
     </row>
     <row r="1132">
       <c r="A1132" t="n">
-        <v>1575936000</v>
+        <v>1574812800</v>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-11-27</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr">
@@ -39995,16 +39995,16 @@
         <v>0.195</v>
       </c>
       <c r="I1132" t="n">
-        <v>139000</v>
+        <v>1118200</v>
       </c>
     </row>
     <row r="1133">
       <c r="A1133" t="n">
-        <v>1576022400</v>
+        <v>1574899200</v>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-11-28</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr">
@@ -40027,19 +40027,19 @@
         <v>0.19</v>
       </c>
       <c r="H1133" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="I1133" t="n">
-        <v>64000</v>
+        <v>88100</v>
       </c>
     </row>
     <row r="1134">
       <c r="A1134" t="n">
-        <v>1576108800</v>
+        <v>1574985600</v>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-11-29</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
@@ -40053,7 +40053,7 @@
         </is>
       </c>
       <c r="E1134" t="n">
-        <v>0.195</v>
+        <v>0.19</v>
       </c>
       <c r="F1134" t="n">
         <v>0.195</v>
@@ -40062,19 +40062,19 @@
         <v>0.19</v>
       </c>
       <c r="H1134" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="I1134" t="n">
-        <v>909000</v>
+        <v>1614500</v>
       </c>
     </row>
     <row r="1135">
       <c r="A1135" t="n">
-        <v>1576195200</v>
+        <v>1575244800</v>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-02</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
@@ -40088,28 +40088,28 @@
         </is>
       </c>
       <c r="E1135" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="F1135" t="n">
         <v>0.195</v>
       </c>
       <c r="G1135" t="n">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="H1135" t="n">
-        <v>0.195</v>
+        <v>0.19</v>
       </c>
       <c r="I1135" t="n">
-        <v>346000</v>
+        <v>142000</v>
       </c>
     </row>
     <row r="1136">
       <c r="A1136" t="n">
-        <v>1576454400</v>
+        <v>1575331200</v>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr">
@@ -40135,16 +40135,16 @@
         <v>0.19</v>
       </c>
       <c r="I1136" t="n">
-        <v>82100</v>
+        <v>666000</v>
       </c>
     </row>
     <row r="1137">
       <c r="A1137" t="n">
-        <v>1576540800</v>
+        <v>1575417600</v>
       </c>
       <c r="B1137" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="C1137" t="inlineStr">
@@ -40167,19 +40167,19 @@
         <v>0.19</v>
       </c>
       <c r="H1137" t="n">
-        <v>0.195</v>
+        <v>0.19</v>
       </c>
       <c r="I1137" t="n">
-        <v>731900</v>
+        <v>653100</v>
       </c>
     </row>
     <row r="1138">
       <c r="A1138" t="n">
-        <v>1576627200</v>
+        <v>1575504000</v>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr">
@@ -40202,19 +40202,19 @@
         <v>0.185</v>
       </c>
       <c r="H1138" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="I1138" t="n">
-        <v>978500</v>
+        <v>804000</v>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="n">
-        <v>1576713600</v>
+        <v>1575590400</v>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr">
@@ -40231,25 +40231,25 @@
         <v>0.19</v>
       </c>
       <c r="F1139" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1139" t="n">
         <v>0.19</v>
       </c>
-      <c r="G1139" t="n">
-        <v>0.185</v>
-      </c>
       <c r="H1139" t="n">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="I1139" t="n">
-        <v>50000</v>
+        <v>213200</v>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="n">
-        <v>1576800000</v>
+        <v>1575849600</v>
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>2019-12-20</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="C1140" t="inlineStr">
@@ -40263,28 +40263,28 @@
         </is>
       </c>
       <c r="E1140" t="n">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="F1140" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1140" t="n">
         <v>0.19</v>
       </c>
-      <c r="G1140" t="n">
-        <v>0.185</v>
-      </c>
       <c r="H1140" t="n">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="I1140" t="n">
-        <v>396600</v>
+        <v>1382000</v>
       </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
-        <v>1577059200</v>
+        <v>1575936000</v>
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
@@ -40298,28 +40298,28 @@
         </is>
       </c>
       <c r="E1141" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1141" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1141" t="n">
         <v>0.19</v>
       </c>
-      <c r="F1141" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="G1141" t="n">
-        <v>0.185</v>
-      </c>
       <c r="H1141" t="n">
-        <v>0.185</v>
+        <v>0.195</v>
       </c>
       <c r="I1141" t="n">
-        <v>1990000</v>
+        <v>139000</v>
       </c>
     </row>
     <row r="1142">
       <c r="A1142" t="n">
-        <v>1577145600</v>
+        <v>1576022400</v>
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
@@ -40333,28 +40333,28 @@
         </is>
       </c>
       <c r="E1142" t="n">
-        <v>0.185</v>
+        <v>0.195</v>
       </c>
       <c r="F1142" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1142" t="n">
         <v>0.19</v>
       </c>
-      <c r="G1142" t="n">
-        <v>0.18</v>
-      </c>
       <c r="H1142" t="n">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="I1142" t="n">
-        <v>618700</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="1143">
       <c r="A1143" t="n">
-        <v>1577318400</v>
+        <v>1576108800</v>
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="C1143" t="inlineStr">
@@ -40368,28 +40368,28 @@
         </is>
       </c>
       <c r="E1143" t="n">
-        <v>0.185</v>
+        <v>0.195</v>
       </c>
       <c r="F1143" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1143" t="n">
         <v>0.19</v>
-      </c>
-      <c r="G1143" t="n">
-        <v>0.185</v>
       </c>
       <c r="H1143" t="n">
         <v>0.19</v>
       </c>
       <c r="I1143" t="n">
-        <v>732400</v>
+        <v>909000</v>
       </c>
     </row>
     <row r="1144">
       <c r="A1144" t="n">
-        <v>1577404800</v>
+        <v>1576195200</v>
       </c>
       <c r="B1144" t="inlineStr">
         <is>
-          <t>2019-12-27</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="C1144" t="inlineStr">
@@ -40403,28 +40403,28 @@
         </is>
       </c>
       <c r="E1144" t="n">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="F1144" t="n">
-        <v>0.185</v>
+        <v>0.195</v>
       </c>
       <c r="G1144" t="n">
         <v>0.185</v>
       </c>
       <c r="H1144" t="n">
-        <v>0.185</v>
+        <v>0.195</v>
       </c>
       <c r="I1144" t="n">
-        <v>384600</v>
+        <v>346000</v>
       </c>
     </row>
     <row r="1145">
       <c r="A1145" t="n">
-        <v>1577664000</v>
+        <v>1576454400</v>
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>2019-12-30</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="C1145" t="inlineStr">
@@ -40438,28 +40438,28 @@
         </is>
       </c>
       <c r="E1145" t="n">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="F1145" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1145" t="n">
         <v>0.19</v>
       </c>
-      <c r="G1145" t="n">
-        <v>0.185</v>
-      </c>
       <c r="H1145" t="n">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="I1145" t="n">
-        <v>906500</v>
+        <v>82100</v>
       </c>
     </row>
     <row r="1146">
       <c r="A1146" t="n">
-        <v>1577750400</v>
+        <v>1576540800</v>
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="C1146" t="inlineStr">
@@ -40473,28 +40473,28 @@
         </is>
       </c>
       <c r="E1146" t="n">
-        <v>0.185</v>
+        <v>0.195</v>
       </c>
       <c r="F1146" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1146" t="n">
         <v>0.19</v>
       </c>
-      <c r="G1146" t="n">
-        <v>0.185</v>
-      </c>
       <c r="H1146" t="n">
-        <v>0.185</v>
+        <v>0.195</v>
       </c>
       <c r="I1146" t="n">
-        <v>852900</v>
+        <v>731900</v>
       </c>
     </row>
     <row r="1147">
       <c r="A1147" t="n">
-        <v>1577923200</v>
+        <v>1576627200</v>
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>2020-01-02</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="C1147" t="inlineStr">
@@ -40511,25 +40511,25 @@
         <v>0.19</v>
       </c>
       <c r="F1147" t="n">
-        <v>0.19</v>
+        <v>0.195</v>
       </c>
       <c r="G1147" t="n">
         <v>0.185</v>
       </c>
       <c r="H1147" t="n">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="I1147" t="n">
-        <v>512900</v>
+        <v>978500</v>
       </c>
     </row>
     <row r="1148">
       <c r="A1148" t="n">
-        <v>1578009600</v>
+        <v>1576713600</v>
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>2020-01-03</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
@@ -40543,28 +40543,28 @@
         </is>
       </c>
       <c r="E1148" t="n">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="F1148" t="n">
         <v>0.19</v>
       </c>
       <c r="G1148" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="H1148" t="n">
         <v>0.185</v>
       </c>
       <c r="I1148" t="n">
-        <v>2098500</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="1149">
       <c r="A1149" t="n">
-        <v>1578268800</v>
+        <v>1576800000</v>
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>2020-01-06</t>
+          <t>2019-12-20</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
@@ -40581,25 +40581,25 @@
         <v>0.185</v>
       </c>
       <c r="F1149" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1149" t="n">
         <v>0.185</v>
-      </c>
-      <c r="G1149" t="n">
-        <v>0.18</v>
       </c>
       <c r="H1149" t="n">
         <v>0.185</v>
       </c>
       <c r="I1149" t="n">
-        <v>179400</v>
+        <v>396600</v>
       </c>
     </row>
     <row r="1150">
       <c r="A1150" t="n">
-        <v>1578355200</v>
+        <v>1577059200</v>
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>2020-01-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="C1150" t="inlineStr">
@@ -40613,28 +40613,28 @@
         </is>
       </c>
       <c r="E1150" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1150" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1150" t="n">
         <v>0.185</v>
       </c>
-      <c r="F1150" t="n">
+      <c r="H1150" t="n">
         <v>0.185</v>
       </c>
-      <c r="G1150" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="H1150" t="n">
-        <v>0.18</v>
-      </c>
       <c r="I1150" t="n">
-        <v>891500</v>
+        <v>1990000</v>
       </c>
     </row>
     <row r="1151">
       <c r="A1151" t="n">
-        <v>1578441600</v>
+        <v>1577145600</v>
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="C1151" t="inlineStr">
@@ -40648,28 +40648,28 @@
         </is>
       </c>
       <c r="E1151" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="F1151" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="G1151" t="n">
         <v>0.18</v>
       </c>
       <c r="H1151" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="I1151" t="n">
-        <v>2213900</v>
+        <v>618700</v>
       </c>
     </row>
     <row r="1152">
       <c r="A1152" t="n">
-        <v>1578528000</v>
+        <v>1577318400</v>
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="C1152" t="inlineStr">
@@ -40683,28 +40683,28 @@
         </is>
       </c>
       <c r="E1152" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="F1152" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1152" t="n">
         <v>0.185</v>
       </c>
-      <c r="G1152" t="n">
-        <v>0.18</v>
-      </c>
       <c r="H1152" t="n">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="I1152" t="n">
-        <v>471400</v>
+        <v>732400</v>
       </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
-        <v>1578614400</v>
+        <v>1577404800</v>
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>2020-01-10</t>
+          <t>2019-12-27</t>
         </is>
       </c>
       <c r="C1153" t="inlineStr">
@@ -40724,22 +40724,22 @@
         <v>0.185</v>
       </c>
       <c r="G1153" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="H1153" t="n">
         <v>0.185</v>
       </c>
       <c r="I1153" t="n">
-        <v>958300</v>
+        <v>384600</v>
       </c>
     </row>
     <row r="1154">
       <c r="A1154" t="n">
-        <v>1578873600</v>
+        <v>1577664000</v>
       </c>
       <c r="B1154" t="inlineStr">
         <is>
-          <t>2020-01-13</t>
+          <t>2019-12-30</t>
         </is>
       </c>
       <c r="C1154" t="inlineStr">
@@ -40753,28 +40753,28 @@
         </is>
       </c>
       <c r="E1154" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="F1154" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1154" t="n">
         <v>0.185</v>
       </c>
-      <c r="G1154" t="n">
-        <v>0.18</v>
-      </c>
       <c r="H1154" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="I1154" t="n">
-        <v>376800</v>
+        <v>906500</v>
       </c>
     </row>
     <row r="1155">
       <c r="A1155" t="n">
-        <v>1578960000</v>
+        <v>1577750400</v>
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>2020-01-14</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -40791,25 +40791,25 @@
         <v>0.185</v>
       </c>
       <c r="F1155" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1155" t="n">
         <v>0.185</v>
       </c>
-      <c r="G1155" t="n">
-        <v>0.18</v>
-      </c>
       <c r="H1155" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="I1155" t="n">
-        <v>765900</v>
+        <v>852900</v>
       </c>
     </row>
     <row r="1156">
       <c r="A1156" t="n">
-        <v>1579046400</v>
+        <v>1577923200</v>
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>2020-01-15</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
@@ -40823,28 +40823,28 @@
         </is>
       </c>
       <c r="E1156" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="F1156" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1156" t="n">
         <v>0.185</v>
-      </c>
-      <c r="G1156" t="n">
-        <v>0.18</v>
       </c>
       <c r="H1156" t="n">
         <v>0.185</v>
       </c>
       <c r="I1156" t="n">
-        <v>793100</v>
+        <v>512900</v>
       </c>
     </row>
     <row r="1157">
       <c r="A1157" t="n">
-        <v>1579132800</v>
+        <v>1578009600</v>
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>2020-01-16</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
@@ -40858,28 +40858,28 @@
         </is>
       </c>
       <c r="E1157" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="F1157" t="n">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="G1157" t="n">
         <v>0.18</v>
       </c>
       <c r="H1157" t="n">
-        <v>0.18</v>
+        <v>0.185</v>
       </c>
       <c r="I1157" t="n">
-        <v>2552100</v>
+        <v>2098500</v>
       </c>
     </row>
     <row r="1158">
       <c r="A1158" t="n">
-        <v>1579219200</v>
+        <v>1578268800</v>
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>2020-01-17</t>
+          <t>2020-01-06</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -40896,25 +40896,25 @@
         <v>0.185</v>
       </c>
       <c r="F1158" t="n">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="G1158" t="n">
         <v>0.18</v>
       </c>
       <c r="H1158" t="n">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="I1158" t="n">
-        <v>2910900</v>
+        <v>179400</v>
       </c>
     </row>
     <row r="1159">
       <c r="A1159" t="n">
-        <v>1579478400</v>
+        <v>1578355200</v>
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>2020-01-20</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
@@ -40928,28 +40928,28 @@
         </is>
       </c>
       <c r="E1159" t="n">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="F1159" t="n">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="G1159" t="n">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="H1159" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I1159" t="n">
-        <v>840700</v>
+        <v>891500</v>
       </c>
     </row>
     <row r="1160">
       <c r="A1160" t="n">
-        <v>1579564800</v>
+        <v>1578441600</v>
       </c>
       <c r="B1160" t="inlineStr">
         <is>
-          <t>2020-01-21</t>
+          <t>2020-01-08</t>
         </is>
       </c>
       <c r="C1160" t="inlineStr">
@@ -40963,28 +40963,28 @@
         </is>
       </c>
       <c r="E1160" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F1160" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G1160" t="n">
         <v>0.18</v>
       </c>
       <c r="H1160" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I1160" t="n">
-        <v>1126400</v>
+        <v>2213900</v>
       </c>
     </row>
     <row r="1161">
       <c r="A1161" t="n">
-        <v>1579651200</v>
+        <v>1578528000</v>
       </c>
       <c r="B1161" t="inlineStr">
         <is>
-          <t>2020-01-22</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="C1161" t="inlineStr">
@@ -40998,28 +40998,28 @@
         </is>
       </c>
       <c r="E1161" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="F1161" t="n">
-        <v>0.195</v>
+        <v>0.185</v>
       </c>
       <c r="G1161" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1161" t="n">
         <v>0.185</v>
       </c>
-      <c r="H1161" t="n">
-        <v>0.19</v>
-      </c>
       <c r="I1161" t="n">
-        <v>2622100</v>
+        <v>471400</v>
       </c>
     </row>
     <row r="1162">
       <c r="A1162" t="n">
-        <v>1579737600</v>
+        <v>1578614400</v>
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>2020-01-23</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
@@ -41036,7 +41036,7 @@
         <v>0.185</v>
       </c>
       <c r="F1162" t="n">
-        <v>0.19</v>
+        <v>0.185</v>
       </c>
       <c r="G1162" t="n">
         <v>0.18</v>
@@ -41045,16 +41045,16 @@
         <v>0.185</v>
       </c>
       <c r="I1162" t="n">
-        <v>3615400</v>
+        <v>958300</v>
       </c>
     </row>
     <row r="1163">
       <c r="A1163" t="n">
-        <v>1579824000</v>
+        <v>1578873600</v>
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>2020-01-24</t>
+          <t>2020-01-13</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
@@ -41080,16 +41080,16 @@
         <v>0.18</v>
       </c>
       <c r="I1163" t="n">
-        <v>814600</v>
+        <v>376800</v>
       </c>
     </row>
     <row r="1164">
       <c r="A1164" t="n">
-        <v>1580169600</v>
+        <v>1578960000</v>
       </c>
       <c r="B1164" t="inlineStr">
         <is>
-          <t>2020-01-28</t>
+          <t>2020-01-14</t>
         </is>
       </c>
       <c r="C1164" t="inlineStr">
@@ -41106,25 +41106,25 @@
         <v>0.185</v>
       </c>
       <c r="F1164" t="n">
-        <v>0.225</v>
+        <v>0.185</v>
       </c>
       <c r="G1164" t="n">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="H1164" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="I1164" t="n">
-        <v>42072400</v>
+        <v>765900</v>
       </c>
     </row>
     <row r="1165">
       <c r="A1165" t="n">
-        <v>1580256000</v>
+        <v>1579046400</v>
       </c>
       <c r="B1165" t="inlineStr">
         <is>
-          <t>2020-01-29</t>
+          <t>2020-01-15</t>
         </is>
       </c>
       <c r="C1165" t="inlineStr">
@@ -41138,28 +41138,28 @@
         </is>
       </c>
       <c r="E1165" t="n">
-        <v>0.205</v>
+        <v>0.18</v>
       </c>
       <c r="F1165" t="n">
-        <v>0.205</v>
+        <v>0.185</v>
       </c>
       <c r="G1165" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1165" t="n">
         <v>0.185</v>
       </c>
-      <c r="H1165" t="n">
-        <v>0.19</v>
-      </c>
       <c r="I1165" t="n">
-        <v>7210200</v>
+        <v>793100</v>
       </c>
     </row>
     <row r="1166">
       <c r="A1166" t="n">
-        <v>1580342400</v>
+        <v>1579132800</v>
       </c>
       <c r="B1166" t="inlineStr">
         <is>
-          <t>2020-01-30</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="C1166" t="inlineStr">
@@ -41173,28 +41173,28 @@
         </is>
       </c>
       <c r="E1166" t="n">
-        <v>0.195</v>
+        <v>0.18</v>
       </c>
       <c r="F1166" t="n">
-        <v>0.195</v>
+        <v>0.185</v>
       </c>
       <c r="G1166" t="n">
         <v>0.18</v>
       </c>
       <c r="H1166" t="n">
-        <v>0.185</v>
+        <v>0.18</v>
       </c>
       <c r="I1166" t="n">
-        <v>4333900</v>
+        <v>2552100</v>
       </c>
     </row>
     <row r="1167">
       <c r="A1167" t="n">
-        <v>1580428800</v>
+        <v>1579219200</v>
       </c>
       <c r="B1167" t="inlineStr">
         <is>
-          <t>2020-01-31</t>
+          <t>2020-01-17</t>
         </is>
       </c>
       <c r="C1167" t="inlineStr">
@@ -41211,25 +41211,25 @@
         <v>0.185</v>
       </c>
       <c r="F1167" t="n">
-        <v>0.185</v>
+        <v>0.19</v>
       </c>
       <c r="G1167" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="H1167" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="I1167" t="n">
-        <v>8372900</v>
+        <v>2910900</v>
       </c>
     </row>
     <row r="1168">
       <c r="A1168" t="n">
-        <v>1580688000</v>
+        <v>1579478400</v>
       </c>
       <c r="B1168" t="inlineStr">
         <is>
-          <t>2020-02-03</t>
+          <t>2020-01-20</t>
         </is>
       </c>
       <c r="C1168" t="inlineStr">
@@ -41243,28 +41243,28 @@
         </is>
       </c>
       <c r="E1168" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F1168" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="G1168" t="n">
-        <v>0.165</v>
+        <v>0.185</v>
       </c>
       <c r="H1168" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="I1168" t="n">
-        <v>4144200</v>
+        <v>840700</v>
       </c>
     </row>
     <row r="1169">
       <c r="A1169" t="n">
-        <v>1580774400</v>
+        <v>1579564800</v>
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>2020-02-04</t>
+          <t>2020-01-21</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
@@ -41278,28 +41278,28 @@
         </is>
       </c>
       <c r="E1169" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="F1169" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1169" t="n">
         <v>0.18</v>
       </c>
-      <c r="G1169" t="n">
-        <v>0.165</v>
-      </c>
       <c r="H1169" t="n">
-        <v>0.165</v>
+        <v>0.19</v>
       </c>
       <c r="I1169" t="n">
-        <v>6728500</v>
+        <v>1126400</v>
       </c>
     </row>
     <row r="1170">
       <c r="A1170" t="n">
-        <v>1580860800</v>
+        <v>1579651200</v>
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>2020-02-05</t>
+          <t>2020-01-22</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
@@ -41313,28 +41313,28 @@
         </is>
       </c>
       <c r="E1170" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="F1170" t="n">
-        <v>0.175</v>
+        <v>0.195</v>
       </c>
       <c r="G1170" t="n">
-        <v>0.17</v>
+        <v>0.185</v>
       </c>
       <c r="H1170" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="I1170" t="n">
-        <v>4760900</v>
+        <v>2622100</v>
       </c>
     </row>
     <row r="1171">
       <c r="A1171" t="n">
-        <v>1580947200</v>
+        <v>1579737600</v>
       </c>
       <c r="B1171" t="inlineStr">
         <is>
-          <t>2020-02-06</t>
+          <t>2020-01-23</t>
         </is>
       </c>
       <c r="C1171" t="inlineStr">
@@ -41348,28 +41348,28 @@
         </is>
       </c>
       <c r="E1171" t="n">
-        <v>0.175</v>
+        <v>0.185</v>
       </c>
       <c r="F1171" t="n">
-        <v>0.175</v>
+        <v>0.19</v>
       </c>
       <c r="G1171" t="n">
-        <v>0.165</v>
+        <v>0.18</v>
       </c>
       <c r="H1171" t="n">
-        <v>0.17</v>
+        <v>0.185</v>
       </c>
       <c r="I1171" t="n">
-        <v>3742700</v>
+        <v>3615400</v>
       </c>
     </row>
     <row r="1172">
       <c r="A1172" t="n">
-        <v>1581033600</v>
+        <v>1579824000</v>
       </c>
       <c r="B1172" t="inlineStr">
         <is>
-          <t>2020-02-07</t>
+          <t>2020-01-24</t>
         </is>
       </c>
       <c r="C1172" t="inlineStr">
@@ -41383,28 +41383,28 @@
         </is>
       </c>
       <c r="E1172" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="F1172" t="n">
-        <v>0.17</v>
+        <v>0.185</v>
       </c>
       <c r="G1172" t="n">
-        <v>0.165</v>
+        <v>0.18</v>
       </c>
       <c r="H1172" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="I1172" t="n">
-        <v>2677500</v>
+        <v>814600</v>
       </c>
     </row>
     <row r="1173">
       <c r="A1173" t="n">
-        <v>1581292800</v>
+        <v>1580169600</v>
       </c>
       <c r="B1173" t="inlineStr">
         <is>
-          <t>2020-02-10</t>
+          <t>2020-01-28</t>
         </is>
       </c>
       <c r="C1173" t="inlineStr">
@@ -41418,28 +41418,28 @@
         </is>
       </c>
       <c r="E1173" t="n">
-        <v>0.17</v>
+        <v>0.185</v>
       </c>
       <c r="F1173" t="n">
-        <v>0.175</v>
+        <v>0.225</v>
       </c>
       <c r="G1173" t="n">
-        <v>0.165</v>
+        <v>0.185</v>
       </c>
       <c r="H1173" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I1173" t="n">
-        <v>2931200</v>
+        <v>42072400</v>
       </c>
     </row>
     <row r="1174">
       <c r="A1174" t="n">
-        <v>1581379200</v>
+        <v>1580256000</v>
       </c>
       <c r="B1174" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2020-01-29</t>
         </is>
       </c>
       <c r="C1174" t="inlineStr">
@@ -41453,28 +41453,28 @@
         </is>
       </c>
       <c r="E1174" t="n">
-        <v>0.175</v>
+        <v>0.205</v>
       </c>
       <c r="F1174" t="n">
-        <v>0.175</v>
+        <v>0.205</v>
       </c>
       <c r="G1174" t="n">
-        <v>0.165</v>
+        <v>0.185</v>
       </c>
       <c r="H1174" t="n">
-        <v>0.165</v>
+        <v>0.19</v>
       </c>
       <c r="I1174" t="n">
-        <v>1252600</v>
+        <v>7210200</v>
       </c>
     </row>
     <row r="1175">
       <c r="A1175" t="n">
-        <v>1581465600</v>
+        <v>1580342400</v>
       </c>
       <c r="B1175" t="inlineStr">
         <is>
-          <t>2020-02-12</t>
+          <t>2020-01-30</t>
         </is>
       </c>
       <c r="C1175" t="inlineStr">
@@ -41488,28 +41488,28 @@
         </is>
       </c>
       <c r="E1175" t="n">
-        <v>0.17</v>
+        <v>0.195</v>
       </c>
       <c r="F1175" t="n">
-        <v>0.175</v>
+        <v>0.195</v>
       </c>
       <c r="G1175" t="n">
-        <v>0.165</v>
+        <v>0.18</v>
       </c>
       <c r="H1175" t="n">
-        <v>0.165</v>
+        <v>0.185</v>
       </c>
       <c r="I1175" t="n">
-        <v>3425000</v>
+        <v>4333900</v>
       </c>
     </row>
     <row r="1176">
       <c r="A1176" t="n">
-        <v>1581552000</v>
+        <v>1580428800</v>
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2020-01-31</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
@@ -41523,28 +41523,28 @@
         </is>
       </c>
       <c r="E1176" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1176" t="n">
         <v>0.17</v>
       </c>
-      <c r="F1176" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G1176" t="n">
-        <v>0.165</v>
-      </c>
       <c r="H1176" t="n">
-        <v>0.165</v>
+        <v>0.175</v>
       </c>
       <c r="I1176" t="n">
-        <v>1660400</v>
+        <v>8372900</v>
       </c>
     </row>
     <row r="1177">
       <c r="A1177" t="n">
-        <v>1581638400</v>
+        <v>1580688000</v>
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>2020-02-14</t>
+          <t>2020-02-03</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
@@ -41561,25 +41561,25 @@
         <v>0.17</v>
       </c>
       <c r="F1177" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="G1177" t="n">
         <v>0.165</v>
       </c>
       <c r="H1177" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="I1177" t="n">
-        <v>3700800</v>
+        <v>4144200</v>
       </c>
     </row>
     <row r="1178">
       <c r="A1178" t="n">
-        <v>1581897600</v>
+        <v>1580774400</v>
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>2020-02-17</t>
+          <t>2020-02-04</t>
         </is>
       </c>
       <c r="C1178" t="inlineStr">
@@ -41593,28 +41593,28 @@
         </is>
       </c>
       <c r="E1178" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="F1178" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G1178" t="n">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
       <c r="H1178" t="n">
         <v>0.165</v>
       </c>
       <c r="I1178" t="n">
-        <v>2693700</v>
+        <v>6728500</v>
       </c>
     </row>
     <row r="1179">
       <c r="A1179" t="n">
-        <v>1581984000</v>
+        <v>1580860800</v>
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>2020-02-18</t>
+          <t>2020-02-05</t>
         </is>
       </c>
       <c r="C1179" t="inlineStr">
@@ -41631,25 +41631,25 @@
         <v>0.17</v>
       </c>
       <c r="F1179" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1179" t="n">
         <v>0.17</v>
       </c>
-      <c r="G1179" t="n">
-        <v>0.16</v>
-      </c>
       <c r="H1179" t="n">
-        <v>0.165</v>
+        <v>0.175</v>
       </c>
       <c r="I1179" t="n">
-        <v>1530500</v>
+        <v>4760900</v>
       </c>
     </row>
     <row r="1180">
       <c r="A1180" t="n">
-        <v>1582070400</v>
+        <v>1580947200</v>
       </c>
       <c r="B1180" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2020-02-06</t>
         </is>
       </c>
       <c r="C1180" t="inlineStr">
@@ -41663,10 +41663,10 @@
         </is>
       </c>
       <c r="E1180" t="n">
-        <v>0.165</v>
+        <v>0.175</v>
       </c>
       <c r="F1180" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="G1180" t="n">
         <v>0.165</v>
@@ -41675,16 +41675,16 @@
         <v>0.17</v>
       </c>
       <c r="I1180" t="n">
-        <v>581000</v>
+        <v>3742700</v>
       </c>
     </row>
     <row r="1181">
       <c r="A1181" t="n">
-        <v>1582156800</v>
+        <v>1581033600</v>
       </c>
       <c r="B1181" t="inlineStr">
         <is>
-          <t>2020-02-20</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="C1181" t="inlineStr">
@@ -41698,7 +41698,7 @@
         </is>
       </c>
       <c r="E1181" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="F1181" t="n">
         <v>0.17</v>
@@ -41707,19 +41707,19 @@
         <v>0.165</v>
       </c>
       <c r="H1181" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="I1181" t="n">
-        <v>360500</v>
+        <v>2677500</v>
       </c>
     </row>
     <row r="1182">
       <c r="A1182" t="n">
-        <v>1582243200</v>
+        <v>1581292800</v>
       </c>
       <c r="B1182" t="inlineStr">
         <is>
-          <t>2020-02-21</t>
+          <t>2020-02-10</t>
         </is>
       </c>
       <c r="C1182" t="inlineStr">
@@ -41733,28 +41733,28 @@
         </is>
       </c>
       <c r="E1182" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="F1182" t="n">
-        <v>0.17</v>
+        <v>0.175</v>
       </c>
       <c r="G1182" t="n">
         <v>0.165</v>
       </c>
       <c r="H1182" t="n">
-        <v>0.165</v>
+        <v>0.17</v>
       </c>
       <c r="I1182" t="n">
-        <v>520700</v>
+        <v>2931200</v>
       </c>
     </row>
     <row r="1183">
       <c r="A1183" t="n">
-        <v>1582502400</v>
+        <v>1581379200</v>
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>2020-02-24</t>
+          <t>2020-02-11</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
@@ -41768,28 +41768,28 @@
         </is>
       </c>
       <c r="E1183" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1183" t="n">
         <v>0.165</v>
       </c>
-      <c r="F1183" t="n">
+      <c r="H1183" t="n">
         <v>0.165</v>
       </c>
-      <c r="G1183" t="n">
-        <v>0.155</v>
-      </c>
-      <c r="H1183" t="n">
-        <v>0.16</v>
-      </c>
       <c r="I1183" t="n">
-        <v>3091700</v>
+        <v>1252600</v>
       </c>
     </row>
     <row r="1184">
       <c r="A1184" t="n">
-        <v>1582588800</v>
+        <v>1581465600</v>
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>2020-02-25</t>
+          <t>2020-02-12</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
@@ -41803,28 +41803,28 @@
         </is>
       </c>
       <c r="E1184" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="F1184" t="n">
-        <v>0.16</v>
+        <v>0.175</v>
       </c>
       <c r="G1184" t="n">
-        <v>0.15</v>
+        <v>0.165</v>
       </c>
       <c r="H1184" t="n">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
       <c r="I1184" t="n">
-        <v>2196400</v>
+        <v>3425000</v>
       </c>
     </row>
     <row r="1185">
       <c r="A1185" t="n">
-        <v>1582675200</v>
+        <v>1581552000</v>
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>2020-02-26</t>
+          <t>2020-02-13</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
@@ -41838,28 +41838,28 @@
         </is>
       </c>
       <c r="E1185" t="n">
-        <v>0.155</v>
+        <v>0.17</v>
       </c>
       <c r="F1185" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G1185" t="n">
-        <v>0.155</v>
+        <v>0.165</v>
       </c>
       <c r="H1185" t="n">
-        <v>0.16</v>
+        <v>0.165</v>
       </c>
       <c r="I1185" t="n">
-        <v>1036500</v>
+        <v>1660400</v>
       </c>
     </row>
     <row r="1186">
       <c r="A1186" t="n">
-        <v>1582761600</v>
+        <v>1581638400</v>
       </c>
       <c r="B1186" t="inlineStr">
         <is>
-          <t>2020-02-27</t>
+          <t>2020-02-14</t>
         </is>
       </c>
       <c r="C1186" t="inlineStr">
@@ -41873,28 +41873,28 @@
         </is>
       </c>
       <c r="E1186" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F1186" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1186" t="n">
         <v>0.165</v>
       </c>
-      <c r="G1186" t="n">
-        <v>0.15</v>
-      </c>
       <c r="H1186" t="n">
-        <v>0.155</v>
+        <v>0.165</v>
       </c>
       <c r="I1186" t="n">
-        <v>2831500</v>
+        <v>3700800</v>
       </c>
     </row>
     <row r="1187">
       <c r="A1187" t="n">
-        <v>1582848000</v>
+        <v>1581897600</v>
       </c>
       <c r="B1187" t="inlineStr">
         <is>
-          <t>2020-02-28</t>
+          <t>2020-02-17</t>
         </is>
       </c>
       <c r="C1187" t="inlineStr">
@@ -41908,28 +41908,28 @@
         </is>
       </c>
       <c r="E1187" t="n">
-        <v>0.155</v>
+        <v>0.17</v>
       </c>
       <c r="F1187" t="n">
-        <v>0.155</v>
+        <v>0.17</v>
       </c>
       <c r="G1187" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="H1187" t="n">
-        <v>0.15</v>
+        <v>0.165</v>
       </c>
       <c r="I1187" t="n">
-        <v>4917700</v>
+        <v>2693700</v>
       </c>
     </row>
     <row r="1188">
       <c r="A1188" t="n">
-        <v>1583107200</v>
+        <v>1581984000</v>
       </c>
       <c r="B1188" t="inlineStr">
         <is>
-          <t>2020-03-02</t>
+          <t>2020-02-18</t>
         </is>
       </c>
       <c r="C1188" t="inlineStr">
@@ -41943,28 +41943,28 @@
         </is>
       </c>
       <c r="E1188" t="n">
-        <v>0.145</v>
+        <v>0.17</v>
       </c>
       <c r="F1188" t="n">
-        <v>0.145</v>
+        <v>0.17</v>
       </c>
       <c r="G1188" t="n">
-        <v>0.135</v>
+        <v>0.16</v>
       </c>
       <c r="H1188" t="n">
-        <v>0.14</v>
+        <v>0.165</v>
       </c>
       <c r="I1188" t="n">
-        <v>2969800</v>
+        <v>1530500</v>
       </c>
     </row>
     <row r="1189">
       <c r="A1189" t="n">
-        <v>1583193600</v>
+        <v>1582070400</v>
       </c>
       <c r="B1189" t="inlineStr">
         <is>
-          <t>2020-03-03</t>
+          <t>2020-02-19</t>
         </is>
       </c>
       <c r="C1189" t="inlineStr">
@@ -41978,28 +41978,28 @@
         </is>
       </c>
       <c r="E1189" t="n">
-        <v>0.145</v>
+        <v>0.165</v>
       </c>
       <c r="F1189" t="n">
-        <v>0.155</v>
+        <v>0.17</v>
       </c>
       <c r="G1189" t="n">
-        <v>0.145</v>
+        <v>0.165</v>
       </c>
       <c r="H1189" t="n">
-        <v>0.155</v>
+        <v>0.17</v>
       </c>
       <c r="I1189" t="n">
-        <v>4588600</v>
+        <v>581000</v>
       </c>
     </row>
     <row r="1190">
       <c r="A1190" t="n">
-        <v>1583280000</v>
+        <v>1582156800</v>
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>2020-03-04</t>
+          <t>2020-02-20</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
@@ -42013,28 +42013,28 @@
         </is>
       </c>
       <c r="E1190" t="n">
-        <v>0.15</v>
+        <v>0.165</v>
       </c>
       <c r="F1190" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G1190" t="n">
-        <v>0.14</v>
+        <v>0.165</v>
       </c>
       <c r="H1190" t="n">
-        <v>0.15</v>
+        <v>0.165</v>
       </c>
       <c r="I1190" t="n">
-        <v>1986600</v>
+        <v>360500</v>
       </c>
     </row>
     <row r="1191">
       <c r="A1191" t="n">
-        <v>1583366400</v>
+        <v>1582243200</v>
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>2020-03-05</t>
+          <t>2020-02-21</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
@@ -42048,28 +42048,28 @@
         </is>
       </c>
       <c r="E1191" t="n">
-        <v>0.15</v>
+        <v>0.165</v>
       </c>
       <c r="F1191" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="G1191" t="n">
-        <v>0.14</v>
+        <v>0.165</v>
       </c>
       <c r="H1191" t="n">
-        <v>0.14</v>
+        <v>0.165</v>
       </c>
       <c r="I1191" t="n">
-        <v>6665500</v>
+        <v>520700</v>
       </c>
     </row>
     <row r="1192">
       <c r="A1192" t="n">
-        <v>1583452800</v>
+        <v>1582502400</v>
       </c>
       <c r="B1192" t="inlineStr">
         <is>
-          <t>2020-03-06</t>
+          <t>2020-02-24</t>
         </is>
       </c>
       <c r="C1192" t="inlineStr">
@@ -42083,28 +42083,28 @@
         </is>
       </c>
       <c r="E1192" t="n">
-        <v>0.145</v>
+        <v>0.165</v>
       </c>
       <c r="F1192" t="n">
-        <v>0.15</v>
+        <v>0.165</v>
       </c>
       <c r="G1192" t="n">
-        <v>0.14</v>
+        <v>0.155</v>
       </c>
       <c r="H1192" t="n">
-        <v>0.145</v>
+        <v>0.16</v>
       </c>
       <c r="I1192" t="n">
-        <v>1515500</v>
+        <v>3091700</v>
       </c>
     </row>
     <row r="1193">
       <c r="A1193" t="n">
-        <v>1583712000</v>
+        <v>1582588800</v>
       </c>
       <c r="B1193" t="inlineStr">
         <is>
-          <t>2020-03-09</t>
+          <t>2020-02-25</t>
         </is>
       </c>
       <c r="C1193" t="inlineStr">
@@ -42118,28 +42118,28 @@
         </is>
       </c>
       <c r="E1193" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F1193" t="n">
-        <v>0.145</v>
+        <v>0.16</v>
       </c>
       <c r="G1193" t="n">
-        <v>0.115</v>
+        <v>0.15</v>
       </c>
       <c r="H1193" t="n">
-        <v>0.115</v>
+        <v>0.16</v>
       </c>
       <c r="I1193" t="n">
-        <v>16123400</v>
+        <v>2196400</v>
       </c>
     </row>
     <row r="1194">
       <c r="A1194" t="n">
-        <v>1583798400</v>
+        <v>1582675200</v>
       </c>
       <c r="B1194" t="inlineStr">
         <is>
-          <t>2020-03-10</t>
+          <t>2020-02-26</t>
         </is>
       </c>
       <c r="C1194" t="inlineStr">
@@ -42153,28 +42153,28 @@
         </is>
       </c>
       <c r="E1194" t="n">
-        <v>0.11</v>
+        <v>0.155</v>
       </c>
       <c r="F1194" t="n">
-        <v>0.115</v>
+        <v>0.16</v>
       </c>
       <c r="G1194" t="n">
-        <v>0.1</v>
+        <v>0.155</v>
       </c>
       <c r="H1194" t="n">
-        <v>0.105</v>
+        <v>0.16</v>
       </c>
       <c r="I1194" t="n">
-        <v>20560100</v>
+        <v>1036500</v>
       </c>
     </row>
     <row r="1195">
       <c r="A1195" t="n">
-        <v>1583884800</v>
+        <v>1582761600</v>
       </c>
       <c r="B1195" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2020-02-27</t>
         </is>
       </c>
       <c r="C1195" t="inlineStr">
@@ -42188,28 +42188,28 @@
         </is>
       </c>
       <c r="E1195" t="n">
-        <v>0.105</v>
+        <v>0.16</v>
       </c>
       <c r="F1195" t="n">
-        <v>0.105</v>
+        <v>0.165</v>
       </c>
       <c r="G1195" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="H1195" t="n">
-        <v>0.105</v>
+        <v>0.155</v>
       </c>
       <c r="I1195" t="n">
-        <v>7714500</v>
+        <v>2831500</v>
       </c>
     </row>
     <row r="1196">
       <c r="A1196" t="n">
-        <v>1583971200</v>
+        <v>1582848000</v>
       </c>
       <c r="B1196" t="inlineStr">
         <is>
-          <t>2020-03-12</t>
+          <t>2020-02-28</t>
         </is>
       </c>
       <c r="C1196" t="inlineStr">
@@ -42223,53 +42223,368 @@
         </is>
       </c>
       <c r="E1196" t="n">
-        <v>0.1</v>
+        <v>0.155</v>
       </c>
       <c r="F1196" t="n">
-        <v>0.1</v>
+        <v>0.155</v>
       </c>
       <c r="G1196" t="n">
-        <v>0.09</v>
+        <v>0.14</v>
       </c>
       <c r="H1196" t="n">
-        <v>0.095</v>
+        <v>0.15</v>
       </c>
       <c r="I1196" t="n">
-        <v>6010900</v>
+        <v>4917700</v>
       </c>
     </row>
     <row r="1197">
       <c r="A1197" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>2969800</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>4588600</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>1986600</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>6665500</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>1515500</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>16123400</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>20560100</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>7714500</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>6010900</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="n">
         <v>1584057600</v>
       </c>
-      <c r="B1197" t="inlineStr">
+      <c r="B1206" t="inlineStr">
         <is>
           <t>2020-03-13</t>
         </is>
       </c>
-      <c r="C1197" t="inlineStr">
-        <is>
-          <t>0179</t>
-        </is>
-      </c>
-      <c r="D1197" t="inlineStr">
-        <is>
-          <t>BIOHLDG</t>
-        </is>
-      </c>
-      <c r="E1197" t="n">
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
         <v>0.09</v>
       </c>
-      <c r="F1197" t="n">
+      <c r="F1206" t="n">
         <v>0.095</v>
       </c>
-      <c r="G1197" t="n">
+      <c r="G1206" t="n">
         <v>0.08500000000000001</v>
       </c>
-      <c r="H1197" t="n">
+      <c r="H1206" t="n">
         <v>0.09</v>
       </c>
-      <c r="I1197" t="n">
+      <c r="I1206" t="n">
         <v>5519000</v>
       </c>
     </row>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42588,6 +42588,41 @@
         <v>5519000</v>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>13900500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42623,6 +42623,41 @@
         <v>13900500</v>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>9437300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42658,6 +42658,41 @@
         <v>9437300</v>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>1234300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1209"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42693,6 +42693,41 @@
         <v>1234300</v>
       </c>
     </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>5817600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42728,6 +42728,41 @@
         <v>5817600</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>7588500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42763,6 +42763,41 @@
         <v>7588500</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>3140500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42798,6 +42798,41 @@
         <v>3140500</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>7367800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42833,6 +42833,41 @@
         <v>7367800</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>8560400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42868,6 +42868,41 @@
         <v>8560400</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>3631000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42903,6 +42903,41 @@
         <v>3631000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>5138900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42938,6 +42938,41 @@
         <v>5138900</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>1698900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42973,6 +42973,41 @@
         <v>1698900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1980700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43008,6 +43008,41 @@
         <v>1980700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>6930900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43043,6 +43043,41 @@
         <v>6930900</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>14578000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43078,6 +43078,41 @@
         <v>14578000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>3186400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43113,6 +43113,41 @@
         <v>3186400</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>6309900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43148,6 +43148,41 @@
         <v>6309900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>8967700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43183,6 +43183,41 @@
         <v>8967700</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>4619500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43218,6 +43218,41 @@
         <v>4619500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>4034700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         <v>4034700</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>6499800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,41 @@
         <v>6499800</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1640000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43323,6 +43323,41 @@
         <v>1640000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>62175900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43358,6 +43358,41 @@
         <v>62175900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>37128800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43393,6 +43393,41 @@
         <v>37128800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>3547700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43428,6 +43428,41 @@
         <v>3547700</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>22160700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43463,6 +43463,76 @@
         <v>22160700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>20965200</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>3531100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43533,6 +43533,41 @@
         <v>3531100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>13342200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43568,6 +43568,111 @@
         <v>13342200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>5942500</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>2176700</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>110243900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43673,6 +43673,41 @@
         <v>110243900</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>78978100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43708,6 +43708,41 @@
         <v>78978100</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>14390800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0179.xlsx
+++ b/data/0179.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,111 @@
         <v>14390800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>12911000</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>33149200</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B1242" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>0179</t>
+        </is>
+      </c>
+      <c r="D1242" t="inlineStr">
+        <is>
+          <t>BIOHLDG</t>
+        </is>
+      </c>
+      <c r="E1242" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>11238000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
